--- a/database/industries/siman/seshargh/product/quarterly.xlsx
+++ b/database/industries/siman/seshargh/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\seshargh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82B2A5-E000-45BE-A023-04D019EB3043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F480D3-3525-4B8A-8A63-7A6CBA94F28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل اول منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل اول منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1401/12</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -644,12 +644,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -664,7 +664,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -713,7 +713,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -762,7 +762,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -799,7 +799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -814,7 +814,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -853,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -862,37 +862,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>396224</v>
+        <v>435134</v>
       </c>
       <c r="F11" s="11">
-        <v>435134</v>
+        <v>459412</v>
       </c>
       <c r="G11" s="11">
-        <v>459412</v>
+        <v>393262</v>
       </c>
       <c r="H11" s="11">
-        <v>393262</v>
+        <v>361645</v>
       </c>
       <c r="I11" s="11">
-        <v>361645</v>
+        <v>408565</v>
       </c>
       <c r="J11" s="11">
-        <v>408565</v>
+        <v>291244</v>
       </c>
       <c r="K11" s="11">
-        <v>291244</v>
+        <v>303480</v>
       </c>
       <c r="L11" s="11">
-        <v>303480</v>
+        <v>436616</v>
       </c>
       <c r="M11" s="11">
-        <v>436616</v>
+        <v>461992</v>
       </c>
       <c r="N11" s="11">
-        <v>461992</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>374035</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -901,20 +901,20 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>38069</v>
-      </c>
-      <c r="F12" s="9">
         <v>37633</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>17</v>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9">
+        <v>36562</v>
       </c>
       <c r="H12" s="9">
-        <v>36562</v>
-      </c>
-      <c r="I12" s="9">
         <v>-96971</v>
       </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
@@ -931,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -951,8 +951,8 @@
       <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>17</v>
+      <c r="I13" s="11">
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
@@ -960,8 +960,8 @@
       <c r="K13" s="11">
         <v>0</v>
       </c>
-      <c r="L13" s="11">
-        <v>0</v>
+      <c r="L13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>17</v>
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1024,8 +1024,8 @@
       <c r="G15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>17</v>
+      <c r="H15" s="11">
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
@@ -1046,44 +1046,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>434293</v>
+        <v>472767</v>
       </c>
       <c r="F16" s="13">
-        <v>472767</v>
+        <v>459412</v>
       </c>
       <c r="G16" s="13">
-        <v>459412</v>
+        <v>429824</v>
       </c>
       <c r="H16" s="13">
-        <v>429824</v>
+        <v>264674</v>
       </c>
       <c r="I16" s="13">
-        <v>264674</v>
+        <v>408565</v>
       </c>
       <c r="J16" s="13">
-        <v>408565</v>
+        <v>291244</v>
       </c>
       <c r="K16" s="13">
-        <v>291244</v>
+        <v>303480</v>
       </c>
       <c r="L16" s="13">
-        <v>303480</v>
+        <v>436616</v>
       </c>
       <c r="M16" s="13">
-        <v>436616</v>
+        <v>461992</v>
       </c>
       <c r="N16" s="13">
-        <v>461992</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>374035</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1098,7 +1098,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1113,7 +1113,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1128,7 +1128,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1180,7 +1180,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1197,8 +1197,8 @@
       <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
+      <c r="H22" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>17</v>
@@ -1219,7 +1219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>18</v>
       </c>
@@ -1306,37 +1306,37 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>429858</v>
+        <v>433938</v>
       </c>
       <c r="F25" s="11">
-        <v>433938</v>
+        <v>387310</v>
       </c>
       <c r="G25" s="11">
-        <v>387310</v>
+        <v>470960</v>
       </c>
       <c r="H25" s="11">
-        <v>470960</v>
+        <v>357904</v>
       </c>
       <c r="I25" s="11">
-        <v>357904</v>
+        <v>392638</v>
       </c>
       <c r="J25" s="11">
-        <v>392638</v>
+        <v>305759</v>
       </c>
       <c r="K25" s="11">
-        <v>305759</v>
+        <v>321315</v>
       </c>
       <c r="L25" s="11">
-        <v>321315</v>
+        <v>427429</v>
       </c>
       <c r="M25" s="11">
-        <v>427429</v>
+        <v>451604</v>
       </c>
       <c r="N25" s="11">
-        <v>451604</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>377473</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
@@ -1434,18 +1434,18 @@
       <c r="H28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>17</v>
+      <c r="I28" s="9">
+        <v>42724</v>
       </c>
       <c r="J28" s="9">
-        <v>42724</v>
+        <v>19572</v>
       </c>
       <c r="K28" s="9">
-        <v>19572</v>
-      </c>
-      <c r="L28" s="9">
         <v>32088</v>
       </c>
+      <c r="L28" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M28" s="9" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
@@ -1462,20 +1462,20 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>33977</v>
+        <v>38197</v>
       </c>
       <c r="F29" s="11">
-        <v>38197</v>
+        <v>24961</v>
       </c>
       <c r="G29" s="11">
-        <v>24961</v>
+        <v>36272</v>
       </c>
       <c r="H29" s="11">
-        <v>36272</v>
-      </c>
-      <c r="I29" s="11">
         <v>23768</v>
       </c>
+      <c r="I29" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J29" s="11" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>21</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>29</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>33</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H36" s="9">
-        <v>0</v>
+      <c r="H36" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>17</v>
@@ -1763,7 +1763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>35</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>39</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>40</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>41</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>43</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>45</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>46</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>47</v>
       </c>
@@ -2268,44 +2268,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>463835</v>
+        <v>472135</v>
       </c>
       <c r="F50" s="13">
-        <v>472135</v>
+        <v>412271</v>
       </c>
       <c r="G50" s="13">
-        <v>412271</v>
+        <v>507232</v>
       </c>
       <c r="H50" s="13">
-        <v>507232</v>
+        <v>381672</v>
       </c>
       <c r="I50" s="13">
-        <v>381672</v>
+        <v>435362</v>
       </c>
       <c r="J50" s="13">
-        <v>435362</v>
+        <v>325331</v>
       </c>
       <c r="K50" s="13">
-        <v>325331</v>
+        <v>353403</v>
       </c>
       <c r="L50" s="13">
-        <v>353403</v>
+        <v>427429</v>
       </c>
       <c r="M50" s="13">
-        <v>427429</v>
+        <v>451604</v>
       </c>
       <c r="N50" s="13">
-        <v>451604</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>377473</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2320,7 +2320,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2335,7 +2335,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2350,7 +2350,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>48</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2402,7 +2402,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>15</v>
       </c>
@@ -2419,8 +2419,8 @@
       <c r="G56" s="9">
         <v>0</v>
       </c>
-      <c r="H56" s="9">
-        <v>0</v>
+      <c r="H56" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>17</v>
@@ -2441,7 +2441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>25</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>26</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>18</v>
       </c>
@@ -2528,37 +2528,37 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>966874</v>
+        <v>1159061</v>
       </c>
       <c r="F59" s="11">
-        <v>1159061</v>
+        <v>1106196</v>
       </c>
       <c r="G59" s="11">
-        <v>1106196</v>
+        <v>1760775</v>
       </c>
       <c r="H59" s="11">
-        <v>1760775</v>
+        <v>1742032</v>
       </c>
       <c r="I59" s="11">
-        <v>1742032</v>
+        <v>1762820</v>
       </c>
       <c r="J59" s="11">
-        <v>1762820</v>
+        <v>1469685</v>
       </c>
       <c r="K59" s="11">
-        <v>1469685</v>
+        <v>1693399</v>
       </c>
       <c r="L59" s="11">
-        <v>1693399</v>
+        <v>2256752</v>
       </c>
       <c r="M59" s="11">
-        <v>2256752</v>
+        <v>2297475</v>
       </c>
       <c r="N59" s="11">
-        <v>2297475</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2062424</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>27</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>28</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>19</v>
       </c>
@@ -2645,29 +2645,29 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>51612</v>
+        <v>60415</v>
       </c>
       <c r="F62" s="9">
-        <v>60415</v>
+        <v>44453</v>
       </c>
       <c r="G62" s="9">
-        <v>44453</v>
+        <v>78665</v>
       </c>
       <c r="H62" s="9">
-        <v>78665</v>
+        <v>63606</v>
       </c>
       <c r="I62" s="9">
-        <v>63606</v>
+        <v>129924</v>
       </c>
       <c r="J62" s="9">
-        <v>129924</v>
+        <v>62314</v>
       </c>
       <c r="K62" s="9">
-        <v>62314</v>
-      </c>
-      <c r="L62" s="9">
         <v>120406</v>
       </c>
+      <c r="L62" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M62" s="9" t="s">
         <v>17</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>21</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>30</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>31</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>32</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>33</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>34</v>
       </c>
@@ -2926,8 +2926,8 @@
       <c r="G69" s="11">
         <v>0</v>
       </c>
-      <c r="H69" s="11">
-        <v>0</v>
+      <c r="H69" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>17</v>
@@ -2948,7 +2948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>35</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>36</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>37</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>38</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>39</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>40</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>41</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>42</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>22</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>43</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>45</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>46</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>47</v>
       </c>
@@ -3455,44 +3455,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>1018486</v>
+        <v>1219476</v>
       </c>
       <c r="F83" s="15">
-        <v>1219476</v>
+        <v>1150649</v>
       </c>
       <c r="G83" s="15">
-        <v>1150649</v>
+        <v>1839440</v>
       </c>
       <c r="H83" s="15">
-        <v>1839440</v>
+        <v>1805638</v>
       </c>
       <c r="I83" s="15">
-        <v>1805638</v>
+        <v>1892744</v>
       </c>
       <c r="J83" s="15">
-        <v>1892744</v>
+        <v>1531999</v>
       </c>
       <c r="K83" s="15">
-        <v>1531999</v>
+        <v>1813805</v>
       </c>
       <c r="L83" s="15">
-        <v>1813805</v>
+        <v>2256752</v>
       </c>
       <c r="M83" s="15">
-        <v>2256752</v>
+        <v>2297475</v>
       </c>
       <c r="N83" s="15">
-        <v>2297475</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2062424</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3507,7 +3507,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3522,7 +3522,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3537,7 +3537,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>49</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3589,7 +3589,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>15</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>25</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>26</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>18</v>
       </c>
@@ -3715,37 +3715,37 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>1877727</v>
+        <v>2671029</v>
       </c>
       <c r="F92" s="11">
-        <v>2671029</v>
+        <v>2758311</v>
       </c>
       <c r="G92" s="11">
-        <v>2758311</v>
+        <v>3115622</v>
       </c>
       <c r="H92" s="11">
-        <v>3115622</v>
+        <v>4867316</v>
       </c>
       <c r="I92" s="11">
-        <v>4867316</v>
+        <v>4489683</v>
       </c>
       <c r="J92" s="11">
-        <v>4489683</v>
+        <v>4806678</v>
       </c>
       <c r="K92" s="11">
-        <v>4806678</v>
+        <v>5270215</v>
       </c>
       <c r="L92" s="11">
-        <v>5270215</v>
+        <v>5279829</v>
       </c>
       <c r="M92" s="11">
-        <v>5279829</v>
+        <v>5087366</v>
       </c>
       <c r="N92" s="11">
-        <v>5087366</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5463766</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>27</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>28</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>19</v>
       </c>
@@ -3832,29 +3832,29 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>1284252</v>
+        <v>1581669</v>
       </c>
       <c r="F95" s="9">
-        <v>1581669</v>
+        <v>1660407</v>
       </c>
       <c r="G95" s="9">
-        <v>1660407</v>
+        <v>1845851</v>
       </c>
       <c r="H95" s="9">
-        <v>1845851</v>
+        <v>2676119</v>
       </c>
       <c r="I95" s="9">
-        <v>2676119</v>
+        <v>3041007</v>
       </c>
       <c r="J95" s="9">
-        <v>3041007</v>
+        <v>3183834</v>
       </c>
       <c r="K95" s="9">
-        <v>3183834</v>
-      </c>
-      <c r="L95" s="9">
         <v>3752368</v>
       </c>
+      <c r="L95" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M95" s="9" t="s">
         <v>17</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>21</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>30</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>31</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>33</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>34</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>35</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>36</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>37</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>38</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>39</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>40</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>41</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>42</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>22</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>43</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>45</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>46</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>47</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4657,7 +4657,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4672,7 +4672,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4687,7 +4687,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>53</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4739,7 +4739,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>15</v>
       </c>
@@ -4756,8 +4756,8 @@
       <c r="G121" s="9">
         <v>0</v>
       </c>
-      <c r="H121" s="9">
-        <v>0</v>
+      <c r="H121" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I121" s="9" t="s">
         <v>17</v>
@@ -4778,7 +4778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>18</v>
       </c>
@@ -4787,37 +4787,37 @@
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>-617906</v>
+        <v>-677746</v>
       </c>
       <c r="F122" s="11">
-        <v>-677746</v>
+        <v>-688203</v>
       </c>
       <c r="G122" s="11">
-        <v>-688203</v>
+        <v>-876854</v>
       </c>
       <c r="H122" s="11">
-        <v>-876854</v>
+        <v>-1045101</v>
       </c>
       <c r="I122" s="11">
-        <v>-1045101</v>
+        <v>-869501</v>
       </c>
       <c r="J122" s="11">
-        <v>-869501</v>
+        <v>-1137897</v>
       </c>
       <c r="K122" s="11">
-        <v>-1137897</v>
+        <v>-1031068</v>
       </c>
       <c r="L122" s="11">
-        <v>-1031068</v>
+        <v>-1479828</v>
       </c>
       <c r="M122" s="11">
-        <v>-1479828</v>
+        <v>-1496391</v>
       </c>
       <c r="N122" s="11">
-        <v>-1496391</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1511543</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>19</v>
       </c>
@@ -4826,29 +4826,29 @@
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>-20736</v>
+        <v>-22978</v>
       </c>
       <c r="F123" s="9">
-        <v>-22978</v>
+        <v>-20150</v>
       </c>
       <c r="G123" s="9">
-        <v>-20150</v>
+        <v>-24815</v>
       </c>
       <c r="H123" s="9">
-        <v>-24815</v>
+        <v>-25977</v>
       </c>
       <c r="I123" s="9">
-        <v>-25977</v>
+        <v>-40779</v>
       </c>
       <c r="J123" s="9">
-        <v>-40779</v>
+        <v>-41466</v>
       </c>
       <c r="K123" s="9">
-        <v>-41466</v>
-      </c>
-      <c r="L123" s="9">
         <v>-48806</v>
       </c>
+      <c r="L123" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M123" s="9" t="s">
         <v>17</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>34</v>
       </c>
@@ -4873,8 +4873,8 @@
       <c r="G124" s="11">
         <v>0</v>
       </c>
-      <c r="H124" s="11">
-        <v>0</v>
+      <c r="H124" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I124" s="11" t="s">
         <v>17</v>
@@ -4895,7 +4895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>22</v>
       </c>
@@ -4934,44 +4934,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15">
-        <v>-638642</v>
+        <v>-700724</v>
       </c>
       <c r="F126" s="15">
-        <v>-700724</v>
+        <v>-708353</v>
       </c>
       <c r="G126" s="15">
-        <v>-708353</v>
+        <v>-901669</v>
       </c>
       <c r="H126" s="15">
-        <v>-901669</v>
+        <v>-1071078</v>
       </c>
       <c r="I126" s="15">
-        <v>-1071078</v>
+        <v>-910280</v>
       </c>
       <c r="J126" s="15">
-        <v>-910280</v>
+        <v>-1179363</v>
       </c>
       <c r="K126" s="15">
-        <v>-1179363</v>
+        <v>-1079874</v>
       </c>
       <c r="L126" s="15">
-        <v>-1079874</v>
+        <v>-1479828</v>
       </c>
       <c r="M126" s="15">
-        <v>-1479828</v>
+        <v>-1496391</v>
       </c>
       <c r="N126" s="15">
-        <v>-1496391</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1511543</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4986,7 +4986,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -5001,7 +5001,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -5016,7 +5016,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
         <v>54</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5068,7 +5068,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>15</v>
       </c>
@@ -5085,8 +5085,8 @@
       <c r="G132" s="9">
         <v>0</v>
       </c>
-      <c r="H132" s="9">
-        <v>0</v>
+      <c r="H132" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I132" s="9" t="s">
         <v>17</v>
@@ -5107,7 +5107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>18</v>
       </c>
@@ -5116,37 +5116,37 @@
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11">
-        <v>348968</v>
+        <v>481315</v>
       </c>
       <c r="F133" s="11">
-        <v>481315</v>
+        <v>417993</v>
       </c>
       <c r="G133" s="11">
-        <v>417993</v>
+        <v>883921</v>
       </c>
       <c r="H133" s="11">
-        <v>883921</v>
+        <v>696931</v>
       </c>
       <c r="I133" s="11">
-        <v>696931</v>
+        <v>893319</v>
       </c>
       <c r="J133" s="11">
-        <v>893319</v>
+        <v>331788</v>
       </c>
       <c r="K133" s="11">
-        <v>331788</v>
+        <v>662331</v>
       </c>
       <c r="L133" s="11">
-        <v>662331</v>
+        <v>776924</v>
       </c>
       <c r="M133" s="11">
-        <v>776924</v>
+        <v>801084</v>
       </c>
       <c r="N133" s="11">
-        <v>801084</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>550881</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>19</v>
       </c>
@@ -5155,29 +5155,29 @@
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9">
-        <v>30876</v>
+        <v>37437</v>
       </c>
       <c r="F134" s="9">
-        <v>37437</v>
+        <v>24303</v>
       </c>
       <c r="G134" s="9">
-        <v>24303</v>
+        <v>53850</v>
       </c>
       <c r="H134" s="9">
-        <v>53850</v>
+        <v>37629</v>
       </c>
       <c r="I134" s="9">
-        <v>37629</v>
+        <v>89145</v>
       </c>
       <c r="J134" s="9">
-        <v>89145</v>
+        <v>20848</v>
       </c>
       <c r="K134" s="9">
-        <v>20848</v>
-      </c>
-      <c r="L134" s="9">
         <v>71600</v>
       </c>
+      <c r="L134" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M134" s="9" t="s">
         <v>17</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>34</v>
       </c>
@@ -5202,8 +5202,8 @@
       <c r="G135" s="11">
         <v>0</v>
       </c>
-      <c r="H135" s="11">
-        <v>0</v>
+      <c r="H135" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I135" s="11" t="s">
         <v>17</v>
@@ -5224,7 +5224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>22</v>
       </c>
@@ -5263,41 +5263,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
       <c r="E137" s="15">
-        <v>379844</v>
+        <v>518752</v>
       </c>
       <c r="F137" s="15">
-        <v>518752</v>
+        <v>442296</v>
       </c>
       <c r="G137" s="15">
-        <v>442296</v>
+        <v>937771</v>
       </c>
       <c r="H137" s="15">
-        <v>937771</v>
+        <v>734560</v>
       </c>
       <c r="I137" s="15">
-        <v>734560</v>
+        <v>982464</v>
       </c>
       <c r="J137" s="15">
-        <v>982464</v>
+        <v>352636</v>
       </c>
       <c r="K137" s="15">
-        <v>352636</v>
+        <v>733931</v>
       </c>
       <c r="L137" s="15">
-        <v>733931</v>
+        <v>776924</v>
       </c>
       <c r="M137" s="15">
-        <v>776924</v>
+        <v>801084</v>
       </c>
       <c r="N137" s="15">
-        <v>801084</v>
+        <v>550881</v>
       </c>
     </row>
   </sheetData>
